--- a/tests/data/cars_no_row_names.xlsx
+++ b/tests/data/cars_no_row_names.xlsx
@@ -593,37 +593,37 @@
     </row>
     <row r="7">
       <c r="A7" s="12" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B7" s="13" t="n">
-        <v>83.33333333333333</v>
+        <v>110</v>
       </c>
       <c r="C7" s="13" t="n">
-        <v>18.50225211517056</v>
+        <v>0</v>
       </c>
       <c r="D7" s="13" t="n">
-        <v>2.886666666666667</v>
+        <v>2.7475</v>
       </c>
       <c r="E7" s="13" t="n">
-        <v>0.4911551010967242</v>
+        <v>0.1803122292025695</v>
       </c>
       <c r="F7" s="7" t="n"/>
     </row>
     <row r="8">
       <c r="A8" s="12" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B8" s="13" t="n">
-        <v>110</v>
+        <v>83.33333333333333</v>
       </c>
       <c r="C8" s="13" t="n">
-        <v>0</v>
+        <v>18.50225211517056</v>
       </c>
       <c r="D8" s="13" t="n">
-        <v>2.7475</v>
+        <v>2.886666666666667</v>
       </c>
       <c r="E8" s="13" t="n">
-        <v>0.1803122292025695</v>
+        <v>0.4911551010967242</v>
       </c>
       <c r="F8" s="7" t="n"/>
     </row>

--- a/tests/data/cars_no_row_names.xlsx
+++ b/tests/data/cars_no_row_names.xlsx
@@ -593,37 +593,37 @@
     </row>
     <row r="7">
       <c r="A7" s="12" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B7" s="13" t="n">
-        <v>110</v>
+        <v>83.33333333333333</v>
       </c>
       <c r="C7" s="13" t="n">
-        <v>0</v>
+        <v>18.50225211517056</v>
       </c>
       <c r="D7" s="13" t="n">
-        <v>2.7475</v>
+        <v>2.886666666666667</v>
       </c>
       <c r="E7" s="13" t="n">
-        <v>0.1803122292025695</v>
+        <v>0.4911551010967242</v>
       </c>
       <c r="F7" s="7" t="n"/>
     </row>
     <row r="8">
       <c r="A8" s="12" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B8" s="13" t="n">
-        <v>83.33333333333333</v>
+        <v>110</v>
       </c>
       <c r="C8" s="13" t="n">
-        <v>18.50225211517056</v>
+        <v>0</v>
       </c>
       <c r="D8" s="13" t="n">
-        <v>2.886666666666667</v>
+        <v>2.7475</v>
       </c>
       <c r="E8" s="13" t="n">
-        <v>0.4911551010967242</v>
+        <v>0.1803122292025695</v>
       </c>
       <c r="F8" s="7" t="n"/>
     </row>

--- a/tests/data/cars_no_row_names.xlsx
+++ b/tests/data/cars_no_row_names.xlsx
@@ -489,7 +489,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -593,37 +593,33 @@
     </row>
     <row r="7">
       <c r="A7" s="12" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B7" s="13" t="n">
-        <v>83.33333333333333</v>
-      </c>
-      <c r="C7" s="13" t="n">
-        <v>18.50225211517056</v>
-      </c>
+        <v>91</v>
+      </c>
+      <c r="C7" s="13" t="n"/>
       <c r="D7" s="13" t="n">
-        <v>2.886666666666667</v>
-      </c>
-      <c r="E7" s="13" t="n">
-        <v>0.4911551010967242</v>
-      </c>
+        <v>2.14</v>
+      </c>
+      <c r="E7" s="13" t="n"/>
       <c r="F7" s="7" t="n"/>
     </row>
     <row r="8">
       <c r="A8" s="12" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="B8" s="13" t="n">
-        <v>110</v>
+        <v>81.8</v>
       </c>
       <c r="C8" s="13" t="n">
-        <v>0</v>
+        <v>21.87235698318771</v>
       </c>
       <c r="D8" s="13" t="n">
-        <v>2.7475</v>
+        <v>2.3003</v>
       </c>
       <c r="E8" s="13" t="n">
-        <v>0.1803122292025695</v>
+        <v>0.5982073312080948</v>
       </c>
       <c r="F8" s="7" t="n"/>
     </row>
@@ -632,53 +628,71 @@
         <v>3</v>
       </c>
       <c r="B9" s="13" t="n">
-        <v>112.6666666666667</v>
+        <v>131.6666666666667</v>
       </c>
       <c r="C9" s="13" t="n">
-        <v>9.291573243177568</v>
+        <v>37.52776749732568</v>
       </c>
       <c r="D9" s="13" t="n">
-        <v>3.371666666666667</v>
+        <v>2.755</v>
       </c>
       <c r="E9" s="13" t="n">
-        <v>0.1360453355809502</v>
+        <v>0.1281600561797629</v>
       </c>
       <c r="F9" s="7" t="n"/>
     </row>
     <row r="10">
       <c r="A10" s="12" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B10" s="13" t="n">
-        <v>210</v>
+        <v>115.25</v>
       </c>
       <c r="C10" s="13" t="n">
-        <v>49.49747468305833</v>
+        <v>9.178779875342908</v>
       </c>
       <c r="D10" s="13" t="n">
-        <v>3.505</v>
+        <v>3.38875</v>
       </c>
       <c r="E10" s="13" t="n">
-        <v>0.0919238815542511</v>
+        <v>0.1162163929916946</v>
       </c>
       <c r="F10" s="7" t="n"/>
     </row>
     <row r="11">
-      <c r="A11" s="14" t="inlineStr">
+      <c r="A11" s="12" t="n">
+        <v>14</v>
+      </c>
+      <c r="B11" s="13" t="n">
+        <v>209.2142857142857</v>
+      </c>
+      <c r="C11" s="13" t="n">
+        <v>50.97688551827051</v>
+      </c>
+      <c r="D11" s="13" t="n">
+        <v>3.999214285714287</v>
+      </c>
+      <c r="E11" s="13" t="n">
+        <v>0.7594047444769265</v>
+      </c>
+      <c r="F11" s="7" t="n"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="14" t="inlineStr">
         <is>
           <t>Data from the infamous mtcars data set.</t>
         </is>
       </c>
-      <c r="B11" s="15" t="n"/>
-      <c r="C11" s="15" t="n"/>
-      <c r="D11" s="15" t="n"/>
-      <c r="E11" s="15" t="n"/>
+      <c r="B12" s="15" t="n"/>
+      <c r="C12" s="15" t="n"/>
+      <c r="D12" s="15" t="n"/>
+      <c r="E12" s="15" t="n"/>
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="A12:E12"/>
     <mergeCell ref="A2:E2"/>
     <mergeCell ref="D5:E5"/>
-    <mergeCell ref="A11:E11"/>
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="B4:C4"/>
     <mergeCell ref="A3:E3"/>
